--- a/Datasets/yeast-1_vs_7-5-fold/yeast-1_vs_7-5-2tst.xlsx
+++ b/Datasets/yeast-1_vs_7-5-fold/yeast-1_vs_7-5-2tst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,40 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mcg</t>
+          <t>Mcg,</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Gvh,</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Alm,</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Mit,</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Erl,</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Vac,</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Nuc</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
@@ -508,7 +503,6 @@
       <c r="I2" t="n">
         <v>-1</v>
       </c>
-      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -538,7 +532,6 @@
       <c r="I3" t="n">
         <v>-1</v>
       </c>
-      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -568,7 +561,6 @@
       <c r="I4" t="n">
         <v>-1</v>
       </c>
-      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -598,7 +590,6 @@
       <c r="I5" t="n">
         <v>-1</v>
       </c>
-      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -628,7 +619,6 @@
       <c r="I6" t="n">
         <v>-1</v>
       </c>
-      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -658,7 +648,6 @@
       <c r="I7" t="n">
         <v>-1</v>
       </c>
-      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -688,7 +677,6 @@
       <c r="I8" t="n">
         <v>-1</v>
       </c>
-      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -718,7 +706,6 @@
       <c r="I9" t="n">
         <v>-1</v>
       </c>
-      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -748,7 +735,6 @@
       <c r="I10" t="n">
         <v>-1</v>
       </c>
-      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -778,7 +764,6 @@
       <c r="I11" t="n">
         <v>-1</v>
       </c>
-      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -808,7 +793,6 @@
       <c r="I12" t="n">
         <v>-1</v>
       </c>
-      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -838,7 +822,6 @@
       <c r="I13" t="n">
         <v>-1</v>
       </c>
-      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +851,6 @@
       <c r="I14" t="n">
         <v>-1</v>
       </c>
-      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -898,7 +880,6 @@
       <c r="I15" t="n">
         <v>-1</v>
       </c>
-      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -928,7 +909,6 @@
       <c r="I16" t="n">
         <v>-1</v>
       </c>
-      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -958,7 +938,6 @@
       <c r="I17" t="n">
         <v>-1</v>
       </c>
-      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -988,7 +967,6 @@
       <c r="I18" t="n">
         <v>-1</v>
       </c>
-      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1018,7 +996,6 @@
       <c r="I19" t="n">
         <v>-1</v>
       </c>
-      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1048,7 +1025,6 @@
       <c r="I20" t="n">
         <v>-1</v>
       </c>
-      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1078,7 +1054,6 @@
       <c r="I21" t="n">
         <v>-1</v>
       </c>
-      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,7 +1083,6 @@
       <c r="I22" t="n">
         <v>-1</v>
       </c>
-      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1138,7 +1112,6 @@
       <c r="I23" t="n">
         <v>-1</v>
       </c>
-      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1168,7 +1141,6 @@
       <c r="I24" t="n">
         <v>-1</v>
       </c>
-      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1198,7 +1170,6 @@
       <c r="I25" t="n">
         <v>-1</v>
       </c>
-      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1228,7 +1199,6 @@
       <c r="I26" t="n">
         <v>-1</v>
       </c>
-      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1258,7 +1228,6 @@
       <c r="I27" t="n">
         <v>-1</v>
       </c>
-      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1288,7 +1257,6 @@
       <c r="I28" t="n">
         <v>-1</v>
       </c>
-      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1318,7 +1286,6 @@
       <c r="I29" t="n">
         <v>-1</v>
       </c>
-      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1348,7 +1315,6 @@
       <c r="I30" t="n">
         <v>-1</v>
       </c>
-      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1378,7 +1344,6 @@
       <c r="I31" t="n">
         <v>-1</v>
       </c>
-      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1408,7 +1373,6 @@
       <c r="I32" t="n">
         <v>-1</v>
       </c>
-      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1438,7 +1402,6 @@
       <c r="I33" t="n">
         <v>-1</v>
       </c>
-      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1468,7 +1431,6 @@
       <c r="I34" t="n">
         <v>-1</v>
       </c>
-      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1498,7 +1460,6 @@
       <c r="I35" t="n">
         <v>-1</v>
       </c>
-      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1528,7 +1489,6 @@
       <c r="I36" t="n">
         <v>-1</v>
       </c>
-      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1558,7 +1518,6 @@
       <c r="I37" t="n">
         <v>-1</v>
       </c>
-      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1588,7 +1547,6 @@
       <c r="I38" t="n">
         <v>-1</v>
       </c>
-      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1618,7 +1576,6 @@
       <c r="I39" t="n">
         <v>-1</v>
       </c>
-      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1648,7 +1605,6 @@
       <c r="I40" t="n">
         <v>-1</v>
       </c>
-      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1678,7 +1634,6 @@
       <c r="I41" t="n">
         <v>-1</v>
       </c>
-      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1708,7 +1663,6 @@
       <c r="I42" t="n">
         <v>-1</v>
       </c>
-      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1738,7 +1692,6 @@
       <c r="I43" t="n">
         <v>-1</v>
       </c>
-      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1768,7 +1721,6 @@
       <c r="I44" t="n">
         <v>-1</v>
       </c>
-      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1798,7 +1750,6 @@
       <c r="I45" t="n">
         <v>-1</v>
       </c>
-      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1828,7 +1779,6 @@
       <c r="I46" t="n">
         <v>-1</v>
       </c>
-      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1858,7 +1808,6 @@
       <c r="I47" t="n">
         <v>-1</v>
       </c>
-      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1888,7 +1837,6 @@
       <c r="I48" t="n">
         <v>-1</v>
       </c>
-      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1918,7 +1866,6 @@
       <c r="I49" t="n">
         <v>-1</v>
       </c>
-      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1948,7 +1895,6 @@
       <c r="I50" t="n">
         <v>-1</v>
       </c>
-      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1978,7 +1924,6 @@
       <c r="I51" t="n">
         <v>-1</v>
       </c>
-      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2008,7 +1953,6 @@
       <c r="I52" t="n">
         <v>-1</v>
       </c>
-      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2038,7 +1982,6 @@
       <c r="I53" t="n">
         <v>-1</v>
       </c>
-      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2068,7 +2011,6 @@
       <c r="I54" t="n">
         <v>-1</v>
       </c>
-      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2098,7 +2040,6 @@
       <c r="I55" t="n">
         <v>-1</v>
       </c>
-      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2128,7 +2069,6 @@
       <c r="I56" t="n">
         <v>-1</v>
       </c>
-      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2158,7 +2098,6 @@
       <c r="I57" t="n">
         <v>-1</v>
       </c>
-      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2188,7 +2127,6 @@
       <c r="I58" t="n">
         <v>-1</v>
       </c>
-      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2218,7 +2156,6 @@
       <c r="I59" t="n">
         <v>-1</v>
       </c>
-      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2248,7 +2185,6 @@
       <c r="I60" t="n">
         <v>-1</v>
       </c>
-      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2278,7 +2214,6 @@
       <c r="I61" t="n">
         <v>-1</v>
       </c>
-      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2308,7 +2243,6 @@
       <c r="I62" t="n">
         <v>-1</v>
       </c>
-      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2338,7 +2272,6 @@
       <c r="I63" t="n">
         <v>-1</v>
       </c>
-      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2368,7 +2301,6 @@
       <c r="I64" t="n">
         <v>-1</v>
       </c>
-      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2398,7 +2330,6 @@
       <c r="I65" t="n">
         <v>-1</v>
       </c>
-      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2428,7 +2359,6 @@
       <c r="I66" t="n">
         <v>-1</v>
       </c>
-      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2458,7 +2388,6 @@
       <c r="I67" t="n">
         <v>-1</v>
       </c>
-      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2488,7 +2417,6 @@
       <c r="I68" t="n">
         <v>-1</v>
       </c>
-      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2518,7 +2446,6 @@
       <c r="I69" t="n">
         <v>-1</v>
       </c>
-      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2548,7 +2475,6 @@
       <c r="I70" t="n">
         <v>-1</v>
       </c>
-      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2578,7 +2504,6 @@
       <c r="I71" t="n">
         <v>-1</v>
       </c>
-      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2608,7 +2533,6 @@
       <c r="I72" t="n">
         <v>-1</v>
       </c>
-      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2638,7 +2562,6 @@
       <c r="I73" t="n">
         <v>-1</v>
       </c>
-      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2668,7 +2591,6 @@
       <c r="I74" t="n">
         <v>-1</v>
       </c>
-      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2698,7 +2620,6 @@
       <c r="I75" t="n">
         <v>-1</v>
       </c>
-      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2728,7 +2649,6 @@
       <c r="I76" t="n">
         <v>-1</v>
       </c>
-      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2758,7 +2678,6 @@
       <c r="I77" t="n">
         <v>-1</v>
       </c>
-      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2788,7 +2707,6 @@
       <c r="I78" t="n">
         <v>-1</v>
       </c>
-      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2818,7 +2736,6 @@
       <c r="I79" t="n">
         <v>-1</v>
       </c>
-      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2848,7 +2765,6 @@
       <c r="I80" t="n">
         <v>-1</v>
       </c>
-      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2878,7 +2794,6 @@
       <c r="I81" t="n">
         <v>-1</v>
       </c>
-      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2908,7 +2823,6 @@
       <c r="I82" t="n">
         <v>-1</v>
       </c>
-      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2938,7 +2852,6 @@
       <c r="I83" t="n">
         <v>-1</v>
       </c>
-      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2968,7 +2881,6 @@
       <c r="I84" t="n">
         <v>-1</v>
       </c>
-      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2998,7 +2910,6 @@
       <c r="I85" t="n">
         <v>-1</v>
       </c>
-      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3028,7 +2939,6 @@
       <c r="I86" t="n">
         <v>-1</v>
       </c>
-      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3058,7 +2968,6 @@
       <c r="I87" t="n">
         <v>-1</v>
       </c>
-      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3088,7 +2997,6 @@
       <c r="I88" t="n">
         <v>1</v>
       </c>
-      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3118,7 +3026,6 @@
       <c r="I89" t="n">
         <v>1</v>
       </c>
-      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3148,7 +3055,6 @@
       <c r="I90" t="n">
         <v>1</v>
       </c>
-      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3178,7 +3084,6 @@
       <c r="I91" t="n">
         <v>1</v>
       </c>
-      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3208,7 +3113,6 @@
       <c r="I92" t="n">
         <v>1</v>
       </c>
-      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3238,7 +3142,6 @@
       <c r="I93" t="n">
         <v>1</v>
       </c>
-      <c r="J93" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
